--- a/output/vignettes_EN.xlsx
+++ b/output/vignettes_EN.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/jciturra_uc_cl/Documents/papers/factorial-cohesion/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_EBF8F672C3574AFC1248486B325FFC612FEF2346" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -635,13 +643,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -651,7 +658,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -669,18 +676,348 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,15 +1070,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -786,15 +1123,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -839,15 +1176,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -892,15 +1229,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -945,15 +1282,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -998,15 +1335,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1051,15 +1388,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1104,15 +1441,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1157,15 +1494,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1210,15 +1547,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1263,15 +1600,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1316,15 +1653,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1369,15 +1706,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1422,15 +1759,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.0</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1475,15 +1812,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.0</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1528,15 +1865,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.0</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1581,15 +1918,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.0</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1634,15 +1971,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.0</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1687,15 +2024,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.0</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1740,15 +2077,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10.0</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1793,15 +2130,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1846,15 +2183,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1899,15 +2236,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.0</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1952,15 +2289,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.0</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -2005,15 +2342,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.0</v>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -2058,15 +2395,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.0</v>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -2111,15 +2448,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.0</v>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -2164,15 +2501,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8.0</v>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -2217,15 +2554,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9.0</v>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -2270,15 +2607,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10.0</v>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -2323,15 +2660,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.0</v>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -2376,15 +2713,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.0</v>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2429,15 +2766,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.0</v>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -2482,15 +2819,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.0</v>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2535,15 +2872,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>5.0</v>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -2588,15 +2925,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.0</v>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -2641,15 +2978,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7.0</v>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -2694,15 +3031,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8.0</v>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -2747,15 +3084,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.0</v>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -2800,15 +3137,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10.0</v>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2853,15 +3190,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.0</v>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -2906,15 +3243,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.0</v>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2959,15 +3296,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.0</v>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -3012,15 +3349,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.0</v>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -3065,15 +3402,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.0</v>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -3118,15 +3455,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.0</v>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -3171,15 +3508,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7.0</v>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -3224,15 +3561,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8.0</v>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -3277,15 +3614,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9.0</v>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -3330,15 +3667,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10.0</v>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -3383,15 +3720,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.0</v>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -3436,15 +3773,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.0</v>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -3489,15 +3826,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.0</v>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -3542,15 +3879,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.0</v>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -3595,15 +3932,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5.0</v>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -3648,15 +3985,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.0</v>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -3701,15 +4038,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7.0</v>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -3754,15 +4091,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>8.0</v>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3807,15 +4144,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9.0</v>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -3860,15 +4197,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>10.0</v>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -3913,15 +4250,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.0</v>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -3966,15 +4303,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.0</v>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -4019,15 +4356,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.0</v>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -4072,15 +4409,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.0</v>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -4125,15 +4462,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.0</v>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -4178,15 +4515,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>6.0</v>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -4231,15 +4568,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7.0</v>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -4284,15 +4621,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8.0</v>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -4337,15 +4674,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>9.0</v>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -4390,15 +4727,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10.0</v>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -4443,15 +4780,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.0</v>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -4496,15 +4833,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.0</v>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -4549,15 +4886,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.0</v>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -4602,15 +4939,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.0</v>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -4655,15 +4992,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.0</v>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -4708,15 +5045,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6.0</v>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -4761,15 +5098,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>7.0</v>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -4814,15 +5151,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8.0</v>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
@@ -4867,15 +5204,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>9.0</v>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -4920,15 +5257,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>10.0</v>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -4973,15 +5310,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.0</v>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
@@ -5026,15 +5363,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.0</v>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
@@ -5079,15 +5416,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.0</v>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -5132,15 +5469,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.0</v>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -5185,15 +5522,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5.0</v>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -5238,15 +5575,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6.0</v>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -5291,15 +5628,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.0</v>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -5344,15 +5681,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>8.0</v>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>17</v>
@@ -5397,15 +5734,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9.0</v>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -5450,15 +5787,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>10.0</v>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -5503,15 +5840,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.0</v>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
@@ -5556,15 +5893,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.0</v>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -5609,15 +5946,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.0</v>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -5662,15 +5999,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.0</v>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -5715,15 +6052,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.0</v>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -5768,15 +6105,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>6.0</v>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>17</v>
@@ -5821,15 +6158,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>7.0</v>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -5874,15 +6211,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>8.0</v>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -5927,15 +6264,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.0</v>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -5980,15 +6317,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.0</v>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
@@ -6033,15 +6370,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.0</v>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -6086,15 +6423,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.0</v>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -6139,15 +6476,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4.0</v>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -6192,15 +6529,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>5.0</v>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -6245,15 +6582,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>6.0</v>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
@@ -6298,15 +6635,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.0</v>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
@@ -6351,15 +6688,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>8.0</v>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -6404,15 +6741,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9.0</v>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -6457,15 +6794,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.0</v>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -6510,15 +6847,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.0</v>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -6563,15 +6900,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.0</v>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
       </c>
       <c r="D112" t="s">
         <v>17</v>
@@ -6616,15 +6953,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.0</v>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
@@ -6669,15 +7006,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.0</v>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -6722,15 +7059,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.0</v>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
@@ -6775,15 +7112,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.0</v>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -6828,15 +7165,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>8.0</v>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -6881,15 +7218,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9.0</v>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -6934,15 +7271,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.0</v>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -6987,15 +7324,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.0</v>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -7040,15 +7377,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3.0</v>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
@@ -7093,15 +7430,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.0</v>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -7146,15 +7483,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.0</v>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -7199,15 +7536,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.0</v>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>17</v>
@@ -7252,15 +7589,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7.0</v>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -7305,15 +7642,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>8.0</v>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -7358,15 +7695,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9.0</v>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
@@ -7411,15 +7748,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.0</v>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
@@ -7464,15 +7801,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.0</v>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -7517,15 +7854,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.0</v>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
@@ -7570,15 +7907,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.0</v>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
       </c>
       <c r="D131" t="s">
         <v>18</v>
@@ -7623,15 +7960,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.0</v>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -7676,15 +8013,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.0</v>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -7729,15 +8066,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>7.0</v>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
@@ -7782,15 +8119,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8.0</v>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -7835,15 +8172,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9.0</v>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -7888,15 +8225,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.0</v>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
@@ -7941,15 +8278,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.0</v>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
@@ -7994,15 +8331,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>3.0</v>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
       </c>
       <c r="D139" t="s">
         <v>17</v>
@@ -8047,15 +8384,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.0</v>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -8100,15 +8437,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5.0</v>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -8153,15 +8490,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>6.0</v>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -8206,15 +8543,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>7.0</v>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>7</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
@@ -8259,15 +8596,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>8.0</v>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -8312,15 +8649,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.0</v>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -8366,6 +8703,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>